--- a/biology/Botanique/Joseph_Dulac_(botaniste)/Joseph_Dulac_(botaniste).xlsx
+++ b/biology/Botanique/Joseph_Dulac_(botaniste)/Joseph_Dulac_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Dulac, né le 5 mai 1827, mort en 1897, est un abbé, théologien, botaniste, mycologue et archéologue français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curé de Sauveterre puis chanoine titulaire de Tarbes, l'abbé Dulac inventorie et récolte les plantes supérieures et les champignons dans les Hautes-Pyrénées. Il s'intéresse aussi à la tératologie mycologique[1]. En 1867, il publie une flore du département, à laquelle il envisage de joindre un inventaire des hyménomycètes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curé de Sauveterre puis chanoine titulaire de Tarbes, l'abbé Dulac inventorie et récolte les plantes supérieures et les champignons dans les Hautes-Pyrénées. Il s'intéresse aussi à la tératologie mycologique. En 1867, il publie une flore du département, à laquelle il envisage de joindre un inventaire des hyménomycètes.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Généalogie de la famille de Briquet / l'abbé Dulac, Joseph (1827-1897). Auteur du texte
 https://gallica.bnf.fr/ark:/12148/bpt6k3226731/f1.item.
 Flore du département des Hautes-Pyrénées (publiée pour la première fois) : Plantes vasculaires spontanées classification naturelle dichotomies pour arriver seul et sans maitre à la détermination des familles, des genres, des espèces, table complète étymologique, gravures dans le texte, carte géographique, Paris, F. Savy, 1867, xii+638 p.
-On lui doit aussi une traduction (grec-français) des Œuvres de Saint Denys l'Aréopagite (Paris, 1865) et quelques contributions en archéologie[2].
+On lui doit aussi une traduction (grec-français) des Œuvres de Saint Denys l'Aréopagite (Paris, 1865) et quelques contributions en archéologie.
 </t>
         </is>
       </c>
